--- a/evaluation/results/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2857775154912954</v>
       </c>
       <c r="H2">
-        <v>0.5861423220973783</v>
+        <v>0.7986540700528832</v>
       </c>
       <c r="I2">
         <v>149</v>

--- a/evaluation/results/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="C2">
-        <v>0.7233009708737864</v>
+        <v>0.590702947845805</v>
       </c>
       <c r="D2">
-        <v>0.2790262172284644</v>
+        <v>0.9756554307116105</v>
       </c>
       <c r="E2">
-        <v>0.4027027027027027</v>
+        <v>0.7358757062146892</v>
       </c>
       <c r="F2">
-        <v>0.3181041844577284</v>
+        <v>0.8631544068919814</v>
       </c>
       <c r="G2">
-        <v>0.2857775154912954</v>
+        <v>0.9517987633501968</v>
       </c>
       <c r="H2">
-        <v>0.7986540700528832</v>
+        <v>0.7969216849724361</v>
       </c>
       <c r="I2">
-        <v>149</v>
+        <v>521</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="K2">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="L2">
-        <v>385</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5533642691415314</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C2">
-        <v>0.8932584269662921</v>
+        <v>0.3239700374531835</v>
       </c>
       <c r="D2">
-        <v>0.6833810888252149</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7233009708737864</v>
+        <v>0.590702947845805</v>
       </c>
       <c r="C3">
-        <v>0.2790262172284644</v>
+        <v>0.9756554307116105</v>
       </c>
       <c r="D3">
-        <v>0.4027027027027027</v>
+        <v>0.7358757062146892</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="C4">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="D4">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="E4">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6383326200076589</v>
+        <v>0.7604052373637626</v>
       </c>
       <c r="C5">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="D5">
-        <v>0.5430418957639588</v>
+        <v>0.6082156308851224</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6383326200076589</v>
+        <v>0.7604052373637626</v>
       </c>
       <c r="C6">
-        <v>0.5861423220973783</v>
+        <v>0.649812734082397</v>
       </c>
       <c r="D6">
-        <v>0.5430418957639589</v>
+        <v>0.6082156308851224</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
